--- a/Story 02/Inflation and Unemployment.xlsx
+++ b/Story 02/Inflation and Unemployment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johncruz/Documents/GitHub/DATA-608/Story 02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B77462FA-369D-E743-9330-6D1198C855EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B209D662-7AB9-8245-AAF8-38AEA3F0DEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15320" yWindow="-28180" windowWidth="51200" windowHeight="28180" xr2:uid="{8699EB1D-A559-BD44-8328-4658995C49F7}"/>
   </bookViews>
@@ -107,10 +107,10 @@
     <t>AxisLabel</t>
   </si>
   <si>
-    <t>Mandate Met %</t>
+    <t>Mandate Not Met</t>
   </si>
   <si>
-    <t>Mandate Not Met %</t>
+    <t>Mandate Met</t>
   </si>
 </sst>
 </file>
@@ -771,7 +771,7 @@
                 <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Inflation, Unemployment</a:t>
+              <a:t>Inflation (YoY), Unemployment</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
@@ -6388,7 +6388,7 @@
                 <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>We can typically see that as unemployment</a:t>
+              <a:t>We can generally see that as unemployment</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
@@ -9061,6 +9061,53 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>We can see that the Fed mandate of meeting both Unemployment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> and Inflation Rate goals only happens 23% of the time.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12651026431147619"/>
+          <c:y val="1.1035653502725111E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9074,16 +9121,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -9110,16 +9157,140 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4F82-8A4B-AEF7-546C8F6E0E81}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4F82-8A4B-AEF7-546C8F6E0E81}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4F82-8A4B-AEF7-546C8F6E0E81}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4F82-8A4B-AEF7-546C8F6E0E81}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>macro_last25yrs_bls_fred!$K$302:$K$303</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Mandate Met %</c:v>
+                  <c:v>Mandate Met</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mandate Not Met %</c:v>
+                  <c:v>Mandate Not Met</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9187,16 +9358,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -9230,7 +9401,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9264,6 +9435,7 @@
         <c:crossAx val="1112640128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -11091,6 +11263,86 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>703383</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>117230</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567B9DB9-BB2E-E689-D7B2-F275412F8648}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9446845" y="644769"/>
+          <a:ext cx="2735385" cy="1172307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> grabbed additional data on Unemployment goals as the figure changes over a 25 year period. Hyperlinks are provided where goal was obtained from. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="John Cruz" id="{D0208AFA-F8DE-C748-A9E8-201A6F620612}" userId="S::JOHN.CRUZ343@spsmail.cuny.edu::849be049-607a-4dc1-a35f-1aaf5d4fe959" providerId="AD"/>
@@ -11427,8 +11679,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11442,8 +11694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76003E01-8CB2-1645-923C-E6E817C56AC0}">
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView topLeftCell="A284" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K302" sqref="K302:L303"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26022,7 +26274,7 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K302" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L302" s="4">
         <f>AVERAGE(L14:L301)</f>
@@ -26031,7 +26283,7 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K303" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L303" s="12">
         <f>1-L302</f>
@@ -26044,6 +26296,7 @@
     <hyperlink ref="K1" r:id="rId2" xr:uid="{16775E30-6CB9-DE47-849E-715E315447AD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>